--- a/Schedule_juan_nava.xlsx
+++ b/Schedule_juan_nava.xlsx
@@ -459,15 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,16 +478,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -771,7 +771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -797,81 +797,81 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:61">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="41">
         <v>41566</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="24">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="41">
         <v>41573</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="24">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41">
         <v>41580</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="24">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="41">
         <v>41587</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="24">
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="41">
         <v>41594</v>
       </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="24">
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="41">
         <v>41601</v>
       </c>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="24">
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="41">
         <v>41608</v>
       </c>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="24">
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="41">
         <v>41615</v>
       </c>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="25"/>
-      <c r="BF2" s="26"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="43"/>
       <c r="BG2" s="23" t="s">
         <v>16</v>
       </c>
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="3" spans="2:61">
-      <c r="B3" s="41"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="BG4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BH4" s="42" t="s">
+      <c r="BH4" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1123,23 +1123,23 @@
       <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AZ5" s="34"/>
+      <c r="J5" s="31"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AS5" s="31"/>
+      <c r="AZ5" s="31"/>
       <c r="BG5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BH5" s="42" t="s">
+      <c r="BH5" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1206,8 +1206,8 @@
       <c r="BG6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BH6" s="43" t="s">
-        <v>22</v>
+      <c r="BH6" s="37" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:61">
@@ -1273,8 +1273,8 @@
       <c r="BG7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="BH7" s="22" t="s">
-        <v>9</v>
+      <c r="BH7" s="38" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:61">
@@ -1547,7 +1547,7 @@
       <c r="BI11" s="1"/>
     </row>
     <row r="12" spans="2:61">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="13"/>
@@ -1606,7 +1606,7 @@
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
       <c r="BF12" s="3"/>
-      <c r="BG12" s="28" t="s">
+      <c r="BG12" s="25" t="s">
         <v>17</v>
       </c>
       <c r="BH12" s="4" t="s">
@@ -1617,63 +1617,63 @@
       <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="28" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="34"/>
+      <c r="BB13" s="34"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="25" t="s">
         <v>17</v>
       </c>
       <c r="BH13" s="4" t="s">
@@ -1681,65 +1681,65 @@
       </c>
     </row>
     <row r="14" spans="2:61">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="30"/>
-      <c r="BA14" s="30"/>
-      <c r="BB14" s="32"/>
-      <c r="BC14" s="30"/>
-      <c r="BD14" s="30"/>
-      <c r="BE14" s="30"/>
-      <c r="BF14" s="31"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="29"/>
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="27"/>
+      <c r="BE14" s="27"/>
+      <c r="BF14" s="28"/>
       <c r="BG14" s="4" t="s">
         <v>17</v>
       </c>
